--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -13,11 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$21</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,85 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
-  <si>
-    <t>type1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>type2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTERNAL_ENTRY Spring Method Mapping URL 
-IN_CALL popup(1)
-IN_OUT_CALL setCommonLottoPopupInfo(1 : {javax.servlet.ServletRequest}['referrerPath'])
-IN_OUT_CALL getAttribute(this['referrerPath'] : return)
-IN_CALL print(0)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type6-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type12</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -115,10 +39,6 @@
   </si>
   <si>
     <t>취약</t>
-  </si>
-  <si>
-    <t>양호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kmeans k=21 40%</t>
@@ -168,14 +88,6 @@
 IN_OUT_CALL next(this : return)
 ASSIGN Assignment to leaflet
 IN_OUT_CALL getValue(this : return)
-IN_CALL print(0)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTERNAL_ENTRY Spring Method Mapping URL 
-IN_CALL popupHtml(1)
-IN_OUT_CALL setCommonLottoPopupInfo(1 : {javax.servlet.ServletRequest}['referrerPath'])
-IN_OUT_CALL getAttribute(this['referrerPath'] : return)
 IN_CALL print(0)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -612,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -625,27 +537,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -657,15 +569,15 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -677,90 +589,50 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -768,197 +640,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="1" width="12.34765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B21">
-    <sortState ref="A2:B21">
-      <sortCondition ref="A1:A21"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>